--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoRain\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07573318-4E4C-4730-80FE-C3C53AAFA11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330131E-3259-4DB4-815A-919A53276E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="5715" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆弹专家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,23 +119,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bombdisex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doctor</t>
+    <t>BusinessMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombDisEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatMagician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoutRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookiePirate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,21 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -504,22 +520,25 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -533,22 +552,25 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -576,105 +598,182 @@
       <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>2001</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
       <c r="G5">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6101</v>
+      </c>
+      <c r="I5">
+        <v>2101</v>
+      </c>
+      <c r="J5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>2002</v>
       </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
       <c r="G6">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6101</v>
+      </c>
+      <c r="I6">
+        <v>2102</v>
+      </c>
+      <c r="J6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>2003</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
       <c r="G7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6101</v>
+      </c>
+      <c r="I7">
+        <v>2103</v>
+      </c>
+      <c r="J7">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>2004</v>
       </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
       <c r="G8">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="H8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6101</v>
+      </c>
+      <c r="I8">
+        <v>2104</v>
+      </c>
+      <c r="J8">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>2005</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
       <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>6101</v>
+      </c>
+      <c r="I9">
+        <v>2105</v>
+      </c>
+      <c r="J9">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>75</v>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>6101</v>
+      </c>
+      <c r="I10">
+        <v>2106</v>
+      </c>
+      <c r="J10">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330131E-3259-4DB4-815A-919A53276E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8785EDD-A944-4510-B4FA-5F2006F9DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1905" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>60</v>
       </c>
       <c r="H6">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="I6">
         <v>2102</v>
@@ -680,7 +680,7 @@
         <v>80</v>
       </c>
       <c r="H7">
-        <v>6101</v>
+        <v>6103</v>
       </c>
       <c r="I7">
         <v>2103</v>
@@ -709,7 +709,7 @@
         <v>110</v>
       </c>
       <c r="H8">
-        <v>6101</v>
+        <v>6104</v>
       </c>
       <c r="I8">
         <v>2104</v>
@@ -738,7 +738,7 @@
         <v>75</v>
       </c>
       <c r="H9">
-        <v>6101</v>
+        <v>6105</v>
       </c>
       <c r="I9">
         <v>2105</v>
@@ -767,7 +767,7 @@
         <v>80</v>
       </c>
       <c r="H10">
-        <v>6101</v>
+        <v>6106</v>
       </c>
       <c r="I10">
         <v>2106</v>

--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8785EDD-A944-4510-B4FA-5F2006F9DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D6015-370C-4472-A849-36FE426A212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1905" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,22 @@
   </si>
   <si>
     <t>RookiePirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +514,7 @@
     <col min="9" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +553,14 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -569,8 +591,14 @@
       <c r="J3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -601,8 +629,14 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -630,8 +664,14 @@
       <c r="J5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -659,8 +699,14 @@
       <c r="J6">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -688,8 +734,14 @@
       <c r="J7">
         <v>1003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>20000</v>
+      </c>
+      <c r="L7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -717,8 +769,14 @@
       <c r="J8">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -746,8 +804,14 @@
       <c r="J9">
         <v>1005</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -774,6 +838,12 @@
       </c>
       <c r="J10">
         <v>1006</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D6015-370C-4472-A849-36FE426A212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4E132-0F0B-4CBE-B04C-8A42A52ECE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2250" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H5">
         <v>6101</v>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
         <v>6102</v>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>0.04</v>
       </c>
       <c r="H7">
         <v>6103</v>
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>110</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H8">
         <v>6104</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H9">
         <v>6105</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>0.04</v>
       </c>
       <c r="H10">
         <v>6106</v>

--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4E132-0F0B-4CBE-B04C-8A42A52ECE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD641B-1912-41EB-A61D-413F44DFAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2250" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="2595" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>unlockPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,10 +519,12 @@
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,16 +561,19 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -589,16 +602,19 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -635,8 +651,11 @@
       <c r="L4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -665,13 +684,16 @@
         <v>1001</v>
       </c>
       <c r="K5">
+        <v>1001</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -700,13 +722,16 @@
         <v>1002</v>
       </c>
       <c r="K6">
+        <v>1002</v>
+      </c>
+      <c r="L6">
         <v>5000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -735,13 +760,16 @@
         <v>1003</v>
       </c>
       <c r="K7">
+        <v>1003</v>
+      </c>
+      <c r="L7">
         <v>20000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -770,13 +798,16 @@
         <v>1004</v>
       </c>
       <c r="K8">
+        <v>1004</v>
+      </c>
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -805,13 +836,16 @@
         <v>1005</v>
       </c>
       <c r="K9">
+        <v>1005</v>
+      </c>
+      <c r="L9">
         <v>100</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -840,9 +874,12 @@
         <v>1006</v>
       </c>
       <c r="K10">
+        <v>1006</v>
+      </c>
+      <c r="L10">
         <v>200</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1002</v>
       </c>
     </row>

--- a/assets/resources/datatables/Player.xlsx
+++ b/assets/resources/datatables/Player.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD641B-1912-41EB-A61D-413F44DFAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{900DC9E0-36AE-49CF-AF28-03FF57084186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2595" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="5265" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Player" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -511,7 +511,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="B10" sqref="B10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
